--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9898814B-1D0B-4482-89FF-4464B0447D5F}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F85E235E-4463-4CA6-A54D-84F274D3813C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Je trouve que j'ai plus tot bien réussi a avancé durant pour le businessCase ainsi que pour a mise en place des journaux individuels pour chaque personne du groupe.</t>
+  </si>
+  <si>
+    <t>Relecture du cahier des charges ainsi que du BusinessCase pour le KickOff</t>
+  </si>
+  <si>
+    <t>Réalisation du Product backlog (Définition des taches)</t>
+  </si>
+  <si>
+    <t>Ajout de nouveau dossier dans la partie documentation</t>
   </si>
 </sst>
 </file>
@@ -460,6 +469,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -492,68 +557,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -836,10 +845,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1195,7 +1200,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1208,85 +1213,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="34">
         <v>45996</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1299,45 +1304,59 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="14">
+        <v>46003</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1346,47 +1365,47 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1399,43 +1418,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1448,43 +1467,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1497,43 +1516,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1546,43 +1565,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1595,43 +1614,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1644,43 +1663,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1693,43 +1712,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1742,43 +1761,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1791,10 +1810,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1804,90 +1823,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1899,6 +1847,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2013,6 +2032,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -2021,15 +2049,6 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2246,6 +2265,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2254,14 +2281,6 @@
     <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
     <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F85E235E-4463-4CA6-A54D-84F274D3813C}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ECCC685-3D68-40B7-A3FC-3530EEC3FF22}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Ajout de nouveau dossier dans la partie documentation</t>
+  </si>
+  <si>
+    <t>Aide pour la prise en main de la manette</t>
+  </si>
+  <si>
+    <t>Avancé de la documentation de projet ainsi que la mise a jour du daily scrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je trouve que j'ai bien réusssi a avancé le projet et à gérer mon role de Scrum Master. Le daily scrum à bien été effeectué et chacun a réussi à effectuer une tâche. J'ai bein réussi à commencé la documentation de projet ei aider à mettre en place la manette. </t>
   </si>
 </sst>
 </file>
@@ -469,100 +478,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -845,6 +854,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1200,7 +1213,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1213,85 +1226,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="20">
         <v>45996</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1304,59 +1317,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1365,47 +1386,49 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1418,43 +1441,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1467,43 +1490,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1516,43 +1539,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1565,43 +1588,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1614,43 +1637,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1663,43 +1686,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1712,43 +1735,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1761,43 +1784,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1810,10 +1833,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1823,19 +1846,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1847,77 +1941,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2041,17 +2064,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2264,6 +2276,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
@@ -2273,19 +2296,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2302,4 +2312,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -1213,7 +1213,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDDC1E5E-E69E-48CE-9C07-9CB99A703B3D}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3893EE5C-7620-4349-AFAB-2CEBC95BC5EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -136,6 +136,17 @@
   </si>
   <si>
     <t>Réalisation de la documentation concernant les tâches effectuées durant le sprint 1</t>
+  </si>
+  <si>
+    <t>Préparation au sprint review (reprisse du code et ajout de correctifs)</t>
+  </si>
+  <si>
+    <t>Réalisation du Sprint Review</t>
+  </si>
+  <si>
+    <t>Pour cette demi-journée, je trouve que le groupe a très bien réussi à effectuer ce qu’il devait faire.
+De mon côté, j’ai pu réaliser une petite partie de la documentation. Celle-ci concerne l’explication des tâches qui ont été effectuées durant le sprint.
+Sinon, je trouve que je me suis bien organisé afin que tous les éléments soient présents lors du sprint review.</t>
   </si>
 </sst>
 </file>
@@ -481,100 +492,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1216,7 +1227,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1229,85 +1240,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="20">
         <v>45996</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1320,67 +1331,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1393,51 +1404,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="29">
         <v>46009</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1446,47 +1465,49 @@
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1499,43 +1520,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1548,43 +1569,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1597,43 +1618,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1646,43 +1667,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1695,43 +1716,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1744,43 +1765,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1793,43 +1814,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1842,10 +1863,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1855,19 +1876,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1879,77 +1971,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2064,6 +2085,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2276,15 +2306,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2297,6 +2318,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2315,14 +2344,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5433B72-B460-4A8A-8C14-70D1E2B83D4D}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69245CCB-C41C-46A9-B8A7-7CF778EA1619}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t xml:space="preserve">Pour cette journée, je trouve que le groupe a très bien fonctionné. Chacun savait quoi faire et chacun a fait ce qu’il devait faire. Je trouve que j’ai bien réussi à aider les personnes de mon groupe quand il le fallait. Il n’y a pas eu de problème majeur durant cette journée, à part quelques problèmes avec le driver de la manette. </t>
+  </si>
+  <si>
+    <t>Définition des tâches qui vont être effectuée dans le sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraction des dents de sagesse </t>
+  </si>
+  <si>
+    <t>Je n'étais pas présent, car j'ai été me faire retiré les dents de sagesse la veille.</t>
+  </si>
+  <si>
+    <t>Je trouve que le groupe fonctionne très bien et la répartition des tâches se fait très bien. Le reste de l'après midi je n'étais pas là, car j'ai été me faire retirer les dents de sagesse.</t>
   </si>
 </sst>
 </file>
@@ -886,10 +898,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,9 +1251,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1568,14 +1576,22 @@
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="14">
+        <v>46030</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="C35" s="20"/>
       <c r="D35" s="8"/>
     </row>
@@ -1607,18 +1623,24 @@
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="C40" s="22"/>
       <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="14">
+        <v>46031</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="C41" s="18"/>
       <c r="D41" s="7"/>
     </row>
@@ -1661,12 +1683,16 @@
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
-      <c r="B47" s="21"/>
+      <c r="B47" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="C47" s="22"/>
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14">
+        <v>15.012600000000001</v>
+      </c>
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="7"/>
@@ -1918,7 +1944,7 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">

--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69245CCB-C41C-46A9-B8A7-7CF778EA1619}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC83C5E-415E-4F16-98EE-FA387BE807BD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>Je trouve que le groupe fonctionne très bien et la répartition des tâches se fait très bien. Le reste de l'après midi je n'étais pas là, car j'ai été me faire retirer les dents de sagesse.</t>
+  </si>
+  <si>
+    <t>finalisaion des maquettes ainsi que l'ajout des maquette dans la documentation</t>
+  </si>
+  <si>
+    <t>Commencement du web summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je trouve que le groupe fonctionne très bien. La répartition à bien été effectuée. </t>
   </si>
 </sst>
 </file>
@@ -522,100 +531,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -898,6 +907,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1251,9 +1264,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <selection pane="bottomLeft" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1266,85 +1279,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="20">
         <v>45996</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1357,67 +1370,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1430,59 +1443,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="29">
         <v>46009</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1495,67 +1508,67 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="29">
         <v>46010</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1568,53 +1581,53 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="A34" s="29">
         <v>46030</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1627,49 +1640,49 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
+      <c r="A41" s="29">
         <v>46031</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="18"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1682,47 +1695,55 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14">
+      <c r="A48" s="29">
         <v>15.012600000000001</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="8"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1731,47 +1752,49 @@
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1784,43 +1807,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1833,43 +1856,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1882,43 +1905,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1931,10 +1954,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1944,19 +1967,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>21.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1968,77 +2062,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2162,17 +2185,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2385,6 +2397,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
@@ -2394,19 +2417,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2423,4 +2433,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC83C5E-415E-4F16-98EE-FA387BE807BD}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FCD53C6-8A6F-4DBA-970D-0884F84E66C9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_NOM_PRENOM2" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">Je trouve que le groupe fonctionne très bien. La répartition à bien été effectuée. </t>
+  </si>
+  <si>
+    <t>Finaisation du websummary</t>
   </si>
 </sst>
 </file>
@@ -531,6 +534,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -563,68 +622,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1266,7 +1269,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="L64" sqref="L64"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1279,85 +1282,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="34">
         <v>45996</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1370,67 +1373,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1443,59 +1446,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="14">
         <v>46009</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1508,67 +1511,67 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="14">
         <v>46010</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1581,53 +1584,53 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
+      <c r="A34" s="14">
         <v>46030</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1640,49 +1643,49 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="A41" s="14">
         <v>46031</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="31"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1695,55 +1698,55 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29">
+      <c r="A48" s="14">
         <v>15.012600000000001</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="31"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1756,45 +1759,51 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="14">
+        <v>46038</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1803,47 +1812,47 @@
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1856,43 +1865,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1905,43 +1914,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1954,10 +1963,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1967,90 +1976,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2062,6 +2000,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2176,15 +2185,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2397,6 +2397,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2409,14 +2418,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2435,6 +2436,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
